--- a/artfynd/A 20255-2019.xlsx
+++ b/artfynd/A 20255-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71934009</v>
+        <v>71955318</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>96355</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>219862</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,17 +720,17 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Skogen NÖ om Bålbroskolan, Upl</t>
+          <t>Björkenäs, Gläntan, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>688625.398946143</v>
+        <v>688361.9018547204</v>
       </c>
       <c r="R2" t="n">
-        <v>6628251.815486348</v>
+        <v>6628601.946578045</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -807,7 +807,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71934047</v>
+        <v>71955338</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -847,14 +847,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Skogen NÖ om Bålbroskolan, Upl</t>
+          <t>Björkenäs, Gläntan, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>688522.0690827493</v>
+        <v>688350.0772071786</v>
       </c>
       <c r="R3" t="n">
-        <v>6628424.789042529</v>
+        <v>6628595.795327608</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -934,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71955318</v>
+        <v>71955315</v>
       </c>
       <c r="B4" t="n">
-        <v>96355</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -950,21 +950,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219862</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>688361.9018547204</v>
+        <v>688375.1939352592</v>
       </c>
       <c r="R4" t="n">
-        <v>6628601.946578045</v>
+        <v>6628599.085711329</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71955338</v>
+        <v>71955359</v>
       </c>
       <c r="B5" t="n">
         <v>98520</v>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>688350.0772071786</v>
+        <v>688368.9025327084</v>
       </c>
       <c r="R5" t="n">
-        <v>6628595.795327608</v>
+        <v>6628573.527109651</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>71955315</v>
+        <v>71955323</v>
       </c>
       <c r="B6" t="n">
         <v>98520</v>
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>688375.1939352592</v>
+        <v>688371.3681368505</v>
       </c>
       <c r="R6" t="n">
-        <v>6628599.085711329</v>
+        <v>6628584.75759712</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>71955359</v>
+        <v>71955445</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1359,10 +1359,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>688368.9025327084</v>
+        <v>688339.897607106</v>
       </c>
       <c r="R7" t="n">
-        <v>6628573.527109651</v>
+        <v>6628627.082556061</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71955323</v>
+        <v>71965499</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>101120</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,21 +1458,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>688371.3681368505</v>
+        <v>688317.766267107</v>
       </c>
       <c r="R8" t="n">
-        <v>6628584.75759712</v>
+        <v>6628654.735997377</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1569,7 +1569,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71955445</v>
+        <v>71964226</v>
       </c>
       <c r="B9" t="n">
         <v>98520</v>
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>688339.897607106</v>
+        <v>688316.8952691283</v>
       </c>
       <c r="R9" t="n">
-        <v>6628627.082556061</v>
+        <v>6628631.976152469</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1696,10 +1696,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71965499</v>
+        <v>71965450</v>
       </c>
       <c r="B10" t="n">
-        <v>101120</v>
+        <v>98520</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>688317.766267107</v>
+        <v>688313.4256247933</v>
       </c>
       <c r="R10" t="n">
-        <v>6628654.735997377</v>
+        <v>6628660.573880369</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71964226</v>
+        <v>71964234</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>101120</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1839,21 +1839,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>688316.8952691283</v>
+        <v>688313.8690585461</v>
       </c>
       <c r="R11" t="n">
-        <v>6628631.976152469</v>
+        <v>6628631.823030195</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>71965450</v>
+        <v>71965509</v>
       </c>
       <c r="B12" t="n">
         <v>98520</v>
@@ -1994,10 +1994,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>688313.4256247933</v>
+        <v>688317.766267107</v>
       </c>
       <c r="R12" t="n">
-        <v>6628660.573880369</v>
+        <v>6628654.735997377</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>71964234</v>
+        <v>71964207</v>
       </c>
       <c r="B13" t="n">
-        <v>101120</v>
+        <v>98431</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2093,16 +2093,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222002</v>
+        <v>222771</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>688313.8690585461</v>
+        <v>688318.7650556953</v>
       </c>
       <c r="R13" t="n">
-        <v>6628631.823030195</v>
+        <v>6628625.003604913</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>71965509</v>
+        <v>71966065</v>
       </c>
       <c r="B14" t="n">
         <v>98520</v>
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>688317.766267107</v>
+        <v>688353.4294477219</v>
       </c>
       <c r="R14" t="n">
-        <v>6628654.735997377</v>
+        <v>6628599.498588714</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>71964207</v>
+        <v>71965472</v>
       </c>
       <c r="B15" t="n">
-        <v>98431</v>
+        <v>101120</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222771</v>
+        <v>222002</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>688318.7650556953</v>
+        <v>688325.5355727162</v>
       </c>
       <c r="R15" t="n">
-        <v>6628625.003604913</v>
+        <v>6628651.090780158</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>71966065</v>
+        <v>73101994</v>
       </c>
       <c r="B16" t="n">
         <v>98520</v>
@@ -2492,23 +2492,19 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Björkenäs, Gläntan, Upl</t>
+          <t>Björkenäs, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>688353.4294477219</v>
+        <v>688330.0904902341</v>
       </c>
       <c r="R16" t="n">
-        <v>6628599.498588714</v>
+        <v>6628621.033502498</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2532,7 +2528,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2018-06-26</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2542,7 +2538,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2018-06-26</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2556,39 +2552,28 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Beata Larsson</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Beata Larsson</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>71965472</v>
+        <v>92897138</v>
       </c>
       <c r="B17" t="n">
-        <v>101120</v>
+        <v>56521</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2597,45 +2582,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222002</v>
+        <v>103035</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Kråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Corvus corone</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Björkenäs, Gläntan, Upl</t>
+          <t>Bålbroskogen, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>688325.5355727162</v>
+        <v>688356.6664694136</v>
       </c>
       <c r="R17" t="n">
-        <v>6628651.090780158</v>
+        <v>6628485.575551489</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2659,7 +2640,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2669,7 +2650,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2683,36 +2664,25 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Beata Larsson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Beata Larsson</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73101994</v>
+        <v>71934047</v>
       </c>
       <c r="B18" t="n">
         <v>98520</v>
@@ -2746,19 +2716,23 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Björkenäs, Upl</t>
+          <t>Skogen NÖ om Bålbroskolan, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>688330.0904902341</v>
+        <v>688522.0690827493</v>
       </c>
       <c r="R18" t="n">
-        <v>6628621.033502498</v>
+        <v>6628424.789042529</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2782,7 +2756,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2792,7 +2766,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2806,28 +2780,39 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Beata Larsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Beata Larsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>92897138</v>
+        <v>88441956</v>
       </c>
       <c r="B19" t="n">
-        <v>56521</v>
+        <v>85318</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2836,41 +2821,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>103035</v>
+        <v>3767</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kråka</t>
+          <t>Violettfläckig spindling</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Corvus corone</t>
+          <t>Cortinarius violaceomaculatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>Brandrud</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Bålbroskogen, Upl</t>
+          <t>Rimbo N, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>688356.6664694136</v>
+        <v>688413.8515789268</v>
       </c>
       <c r="R19" t="n">
-        <v>6628485.575551489</v>
+        <v>6628464.743477113</v>
       </c>
       <c r="S19" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2894,7 +2890,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2904,7 +2900,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2924,22 +2920,26 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Ossian Rydebjörk</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr"/>
+          <t>Ossian Rydebjörk, Birgitta Wasstorp</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Svampar i Roslagen</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>88441956</v>
+        <v>71934009</v>
       </c>
       <c r="B20" t="n">
-        <v>85318</v>
+        <v>98520</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2948,52 +2948,45 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3767</v>
+        <v>222498</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettfläckig spindling</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cortinarius violaceomaculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Brandrud</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Rimbo N, Upl</t>
+          <t>Skogen NÖ om Bålbroskolan, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>688413.8515789268</v>
+        <v>688625.398946143</v>
       </c>
       <c r="R20" t="n">
-        <v>6628464.743477113</v>
+        <v>6628251.815486348</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3017,7 +3010,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3027,7 +3020,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3041,25 +3034,32 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Ossian Rydebjörk</t>
+          <t>Beata Larsson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Ossian Rydebjörk, Birgitta Wasstorp</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>Svampar i Roslagen</t>
-        </is>
-      </c>
+          <t>Beata Larsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 20255-2019.xlsx
+++ b/artfynd/A 20255-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>71955318</v>
+        <v>71934009</v>
       </c>
       <c r="B2" t="n">
-        <v>96355</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219862</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nästrot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia nidus-avis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,17 +720,17 @@
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Björkenäs, Gläntan, Upl</t>
+          <t>Skogen NÖ om Bålbroskolan, Upl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>688361.9018547204</v>
+        <v>688625.398946143</v>
       </c>
       <c r="R2" t="n">
-        <v>6628601.946578045</v>
+        <v>6628251.815486348</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -807,7 +807,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71955338</v>
+        <v>71934047</v>
       </c>
       <c r="B3" t="n">
         <v>98520</v>
@@ -847,14 +847,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Björkenäs, Gläntan, Upl</t>
+          <t>Skogen NÖ om Bålbroskolan, Upl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>688350.0772071786</v>
+        <v>688522.0690827493</v>
       </c>
       <c r="R3" t="n">
-        <v>6628595.795327608</v>
+        <v>6628424.789042529</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2018-06-18</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -934,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>71955315</v>
+        <v>71955318</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>96355</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -950,21 +950,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>219862</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Nästrot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Neottia nidus-avis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>688375.1939352592</v>
+        <v>688361.9018547204</v>
       </c>
       <c r="R4" t="n">
-        <v>6628599.085711329</v>
+        <v>6628601.946578045</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>71955359</v>
+        <v>71955338</v>
       </c>
       <c r="B5" t="n">
         <v>98520</v>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>688368.9025327084</v>
+        <v>688350.0772071786</v>
       </c>
       <c r="R5" t="n">
-        <v>6628573.527109651</v>
+        <v>6628595.795327608</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>71955323</v>
+        <v>71955315</v>
       </c>
       <c r="B6" t="n">
         <v>98520</v>
@@ -1232,13 +1232,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>688371.3681368505</v>
+        <v>688375.1939352592</v>
       </c>
       <c r="R6" t="n">
-        <v>6628584.75759712</v>
+        <v>6628599.085711329</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>71955445</v>
+        <v>71955359</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1359,10 +1359,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>688339.897607106</v>
+        <v>688368.9025327084</v>
       </c>
       <c r="R7" t="n">
-        <v>6628627.082556061</v>
+        <v>6628573.527109651</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71965499</v>
+        <v>71955323</v>
       </c>
       <c r="B8" t="n">
-        <v>101120</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1458,21 +1458,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>688317.766267107</v>
+        <v>688371.3681368505</v>
       </c>
       <c r="R8" t="n">
-        <v>6628654.735997377</v>
+        <v>6628584.75759712</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1569,7 +1569,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>71964226</v>
+        <v>71955445</v>
       </c>
       <c r="B9" t="n">
         <v>98520</v>
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>688316.8952691283</v>
+        <v>688339.897607106</v>
       </c>
       <c r="R9" t="n">
-        <v>6628631.976152469</v>
+        <v>6628627.082556061</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2018-06-21</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1696,10 +1696,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>71965450</v>
+        <v>71965499</v>
       </c>
       <c r="B10" t="n">
-        <v>98520</v>
+        <v>101120</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1712,21 +1712,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>222002</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1740,10 +1740,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>688313.4256247933</v>
+        <v>688317.766267107</v>
       </c>
       <c r="R10" t="n">
-        <v>6628660.573880369</v>
+        <v>6628654.735997377</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>71964234</v>
+        <v>71964226</v>
       </c>
       <c r="B11" t="n">
-        <v>101120</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1839,21 +1839,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222002</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>688313.8690585461</v>
+        <v>688316.8952691283</v>
       </c>
       <c r="R11" t="n">
-        <v>6628631.823030195</v>
+        <v>6628631.976152469</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>71965509</v>
+        <v>71965450</v>
       </c>
       <c r="B12" t="n">
         <v>98520</v>
@@ -1994,10 +1994,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>688317.766267107</v>
+        <v>688313.4256247933</v>
       </c>
       <c r="R12" t="n">
-        <v>6628654.735997377</v>
+        <v>6628660.573880369</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2077,10 +2077,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>71964207</v>
+        <v>71964234</v>
       </c>
       <c r="B13" t="n">
-        <v>98431</v>
+        <v>101120</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2093,16 +2093,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222771</v>
+        <v>222002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>688318.7650556953</v>
+        <v>688313.8690585461</v>
       </c>
       <c r="R13" t="n">
-        <v>6628625.003604913</v>
+        <v>6628631.823030195</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>71966065</v>
+        <v>71965509</v>
       </c>
       <c r="B14" t="n">
         <v>98520</v>
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>688353.4294477219</v>
+        <v>688317.766267107</v>
       </c>
       <c r="R14" t="n">
-        <v>6628599.498588714</v>
+        <v>6628654.735997377</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>71965472</v>
+        <v>71964207</v>
       </c>
       <c r="B15" t="n">
-        <v>101120</v>
+        <v>98431</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2347,16 +2347,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222002</v>
+        <v>222771</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>688325.5355727162</v>
+        <v>688318.7650556953</v>
       </c>
       <c r="R15" t="n">
-        <v>6628651.090780158</v>
+        <v>6628625.003604913</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73101994</v>
+        <v>71966065</v>
       </c>
       <c r="B16" t="n">
         <v>98520</v>
@@ -2492,19 +2492,23 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Björkenäs, Upl</t>
+          <t>Björkenäs, Gläntan, Upl</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>688330.0904902341</v>
+        <v>688353.4294477219</v>
       </c>
       <c r="R16" t="n">
-        <v>6628621.033502498</v>
+        <v>6628599.498588714</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2528,7 +2532,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2538,7 +2542,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2018-06-26</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2552,28 +2556,39 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Beata Larsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Beata Larsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>92897138</v>
+        <v>71965472</v>
       </c>
       <c r="B17" t="n">
-        <v>56521</v>
+        <v>101120</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2582,41 +2597,45 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103035</v>
+        <v>222002</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kråka</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Corvus corone</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Bålbroskogen, Upl</t>
+          <t>Björkenäs, Gläntan, Upl</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>688356.6664694136</v>
+        <v>688325.5355727162</v>
       </c>
       <c r="R17" t="n">
-        <v>6628485.575551489</v>
+        <v>6628651.090780158</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2640,7 +2659,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2650,7 +2669,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2020-05-14</t>
+          <t>2018-06-21</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2664,25 +2683,36 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Beata Larsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Mattias Lif</t>
+          <t>Beata Larsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>71934047</v>
+        <v>73101994</v>
       </c>
       <c r="B18" t="n">
         <v>98520</v>
@@ -2716,23 +2746,19 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Skogen NÖ om Bålbroskolan, Upl</t>
+          <t>Björkenäs, Upl</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>688522.0690827493</v>
+        <v>688330.0904902341</v>
       </c>
       <c r="R18" t="n">
-        <v>6628424.789042529</v>
+        <v>6628621.033502498</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2756,7 +2782,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2018-06-26</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2766,7 +2792,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2018-06-26</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2780,39 +2806,28 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Beata Larsson</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Beata Larsson</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>88441956</v>
+        <v>92897138</v>
       </c>
       <c r="B19" t="n">
-        <v>85318</v>
+        <v>56521</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2821,52 +2836,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3767</v>
+        <v>103035</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Violettfläckig spindling</t>
+          <t>Kråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cortinarius violaceomaculatus</t>
+          <t>Corvus corone</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Brandrud</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Rimbo N, Upl</t>
+          <t>Bålbroskogen, Upl</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>688413.8515789268</v>
+        <v>688356.6664694136</v>
       </c>
       <c r="R19" t="n">
-        <v>6628464.743477113</v>
+        <v>6628485.575551489</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2890,7 +2894,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2900,7 +2904,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
+          <t>2020-05-14</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2920,26 +2924,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Ossian Rydebjörk</t>
+          <t>Mattias Lif</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Ossian Rydebjörk, Birgitta Wasstorp</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>Svampar i Roslagen</t>
-        </is>
-      </c>
+          <t>Mattias Lif</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>71934009</v>
+        <v>88441956</v>
       </c>
       <c r="B20" t="n">
-        <v>98520</v>
+        <v>85318</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2948,45 +2948,52 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>222498</v>
+        <v>3767</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Violettfläckig spindling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cortinarius violaceomaculatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>Brandrud</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Skogen NÖ om Bålbroskolan, Upl</t>
+          <t>Rimbo N, Upl</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>688625.398946143</v>
+        <v>688413.8515789268</v>
       </c>
       <c r="R20" t="n">
-        <v>6628251.815486348</v>
+        <v>6628464.743477113</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -3010,7 +3017,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3020,7 +3027,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2018-06-18</t>
+          <t>2020-10-06</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -3034,32 +3041,25 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Beata Larsson</t>
+          <t>Ossian Rydebjörk</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Beata Larsson</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr"/>
+          <t>Ossian Rydebjörk, Birgitta Wasstorp</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Svampar i Roslagen</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
